--- a/ossetic_linkers_syntax.xlsx
+++ b/ossetic_linkers_syntax.xlsx
@@ -2661,9 +2661,9 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
